--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD8_PriceBenchmark_150407.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD8_PriceBenchmark_150407.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8310"/>
   </bookViews>
@@ -143,9 +148,6 @@
     <t>3 valores: High, Medium, Low</t>
   </si>
   <si>
-    <t>TB Reliabiliy</t>
-  </si>
-  <si>
     <t>Decision Date</t>
   </si>
   <si>
@@ -219,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">Se mostrará la divisa local por defecto </t>
-  </si>
-  <si>
-    <t>TB Divisas</t>
   </si>
   <si>
     <t>Moneda</t>
@@ -243,9 +242,6 @@
     <t>Editable</t>
   </si>
   <si>
-    <t>TB Importance</t>
-  </si>
-  <si>
     <t>5 valores: High, Medium, Low, None, Unknown</t>
   </si>
   <si>
@@ -277,13 +273,25 @@
   </si>
   <si>
     <t xml:space="preserve">Payment Conditions Reason </t>
+  </si>
+  <si>
+    <t>TB Reliabiliy
+[Value]</t>
+  </si>
+  <si>
+    <t>TB Importance
+[Importance]</t>
+  </si>
+  <si>
+    <t>TB Divisas
+[Name]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -577,6 +585,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -594,18 +614,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,7 +676,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,9 +708,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,6 +743,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -909,14 +919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
@@ -928,7 +938,7 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -951,7 +961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75">
+    <row r="2" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="16" t="s">
         <v>24</v>
@@ -970,12 +980,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -987,7 +997,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1016,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1">
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
@@ -1021,7 +1031,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="25.5">
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="16" t="s">
         <v>38</v>
@@ -1038,7 +1048,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="16" t="s">
         <v>25</v>
@@ -1047,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1055,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5">
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="16" t="s">
         <v>27</v>
@@ -1070,7 +1080,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="16" t="s">
         <v>28</v>
@@ -1085,368 +1095,368 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1" ht="38.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34" t="s">
+    <row r="10" spans="1:7" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="35" t="s">
+      <c r="E10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="F10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="35" t="s">
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="36" customFormat="1" ht="38.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34" t="s">
+      <c r="G11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="35" t="s">
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="36" customFormat="1" ht="38.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
+      <c r="G12" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="35" t="s">
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="36" customFormat="1" ht="38.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
+      <c r="G13" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="24.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="38.25">
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" customHeight="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="27" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="28.5" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="25.5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="29" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="12.75">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="27"/>
+      <c r="B30" s="31"/>
       <c r="D30" s="2"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="63.75">
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>2</v>
       </c>
@@ -1456,7 +1466,7 @@
       <c r="D31" s="2"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="38.25">
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
@@ -1466,56 +1476,56 @@
       <c r="D32" s="2"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="4" customFormat="1" ht="12.75">
+    <row r="33" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="22"/>
       <c r="D33" s="2"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="12.75">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="2"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
     </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="B36" s="28" t="s">
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" ht="123.75" customHeight="1">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" ht="39.75" customHeight="1">
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
